--- a/MatrizK_con.xlsx
+++ b/MatrizK_con.xlsx
@@ -464,263 +464,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>451878.784502393</v>
+        <v>1911617.498128736</v>
       </c>
       <c r="B2" t="n">
-        <v>-13217.76200185783</v>
+        <v>-113165.8413860606</v>
       </c>
       <c r="C2" t="n">
-        <v>3161.066394920799</v>
+        <v>28540.77234634302</v>
       </c>
       <c r="D2" t="n">
-        <v>-428427.4325237171</v>
+        <v>-1712803.679326313</v>
       </c>
       <c r="E2" t="n">
-        <v>-178.4231667256216</v>
+        <v>-1433.151327472622</v>
       </c>
       <c r="F2" t="n">
-        <v>-120.9353754678883</v>
+        <v>-271.8285416494427</v>
       </c>
       <c r="G2" t="n">
-        <v>-59.45055103479144</v>
+        <v>-204.350557900693</v>
       </c>
       <c r="H2" t="n">
-        <v>45.93624169647611</v>
+        <v>195.6826054543102</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.28221481722578</v>
+        <v>-85.15575294454683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-13217.76200185783</v>
+        <v>-113165.8413860607</v>
       </c>
       <c r="B3" t="n">
-        <v>444862.7407782736</v>
+        <v>1839496.243988941</v>
       </c>
       <c r="C3" t="n">
-        <v>-6947.009955543546</v>
+        <v>-50624.62287636046</v>
       </c>
       <c r="D3" t="n">
-        <v>-178.6299070155316</v>
+        <v>-1433.724007917279</v>
       </c>
       <c r="E3" t="n">
-        <v>-427650.5041654182</v>
+        <v>-1707997.495462815</v>
       </c>
       <c r="F3" t="n">
-        <v>-775.0726275043269</v>
+        <v>-4799.224590676179</v>
       </c>
       <c r="G3" t="n">
-        <v>45.93624169647612</v>
+        <v>195.6826054543103</v>
       </c>
       <c r="H3" t="n">
-        <v>-166.495067252344</v>
+        <v>-571.8358827451614</v>
       </c>
       <c r="I3" t="n">
-        <v>104.5421915816071</v>
+        <v>359.7398083116524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3161.066394920798</v>
+        <v>28540.77234634303</v>
       </c>
       <c r="B4" t="n">
-        <v>-6947.009955543546</v>
+        <v>-50624.62287636046</v>
       </c>
       <c r="C4" t="n">
-        <v>433326.714882632</v>
+        <v>1744136.540207704</v>
       </c>
       <c r="D4" t="n">
-        <v>-120.6943682934979</v>
+        <v>-271.1554950424127</v>
       </c>
       <c r="E4" t="n">
-        <v>-775.3221087522597</v>
+        <v>-4799.885482785598</v>
       </c>
       <c r="F4" t="n">
-        <v>-428062.696561586</v>
+        <v>-1710803.024177828</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.28221481722579</v>
+        <v>-85.15575294454683</v>
       </c>
       <c r="H4" t="n">
-        <v>104.5421915816071</v>
+        <v>359.7398083116525</v>
       </c>
       <c r="I4" t="n">
-        <v>-85.44098632215115</v>
+        <v>-271.6923346484936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-428427.4325237171</v>
+        <v>-1712803.679326313</v>
       </c>
       <c r="B5" t="n">
-        <v>-178.6299070155315</v>
+        <v>-1433.724007917279</v>
       </c>
       <c r="C5" t="n">
-        <v>-120.694368293498</v>
+        <v>-271.1554950424132</v>
       </c>
       <c r="D5" t="n">
-        <v>881625.7186190281</v>
+        <v>3632450.265653844</v>
       </c>
       <c r="E5" t="n">
-        <v>-13528.05466255937</v>
+        <v>-115834.8343043986</v>
       </c>
       <c r="F5" t="n">
-        <v>2904.118246312257</v>
+        <v>27906.53598360411</v>
       </c>
       <c r="G5" t="n">
-        <v>-428427.4325237171</v>
+        <v>-1712803.679326313</v>
       </c>
       <c r="H5" t="n">
-        <v>-178.6299070155313</v>
+        <v>-1433.724007917278</v>
       </c>
       <c r="I5" t="n">
-        <v>-120.694368293498</v>
+        <v>-271.1554950424129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-178.4231667256216</v>
+        <v>-1433.151327472623</v>
       </c>
       <c r="B6" t="n">
-        <v>-427650.5041654182</v>
+        <v>-1707997.495462815</v>
       </c>
       <c r="C6" t="n">
-        <v>-775.3221087522597</v>
+        <v>-4799.885482785598</v>
       </c>
       <c r="D6" t="n">
-        <v>-13528.05466255937</v>
+        <v>-115834.8343043985</v>
       </c>
       <c r="E6" t="n">
-        <v>876060.6997306512</v>
+        <v>3569593.998906441</v>
       </c>
       <c r="F6" t="n">
-        <v>-8399.168219556683</v>
+        <v>-59891.29840391721</v>
       </c>
       <c r="G6" t="n">
-        <v>-178.4231667256217</v>
+        <v>-1433.151327472624</v>
       </c>
       <c r="H6" t="n">
-        <v>-427650.5041654182</v>
+        <v>-1707997.495462815</v>
       </c>
       <c r="I6" t="n">
-        <v>-775.3221087522594</v>
+        <v>-4799.885482785597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-120.9353754678882</v>
+        <v>-271.8285416494433</v>
       </c>
       <c r="B7" t="n">
-        <v>-775.0726275043269</v>
+        <v>-4799.22459067618</v>
       </c>
       <c r="C7" t="n">
-        <v>-428062.696561586</v>
+        <v>-1710803.024177828</v>
       </c>
       <c r="D7" t="n">
-        <v>2904.118246312257</v>
+        <v>27906.5359836041</v>
       </c>
       <c r="E7" t="n">
-        <v>-8399.168219556683</v>
+        <v>-59891.29840391721</v>
       </c>
       <c r="F7" t="n">
-        <v>863786.0473431491</v>
+        <v>3468939.360022665</v>
       </c>
       <c r="G7" t="n">
-        <v>-120.9353754678884</v>
+        <v>-271.8285416494416</v>
       </c>
       <c r="H7" t="n">
-        <v>-775.0726275043272</v>
+        <v>-4799.224590676181</v>
       </c>
       <c r="I7" t="n">
-        <v>-428062.696561586</v>
+        <v>-1710803.024177828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-59.45055103479143</v>
+        <v>-204.3505579006931</v>
       </c>
       <c r="B8" t="n">
-        <v>45.93624169647614</v>
+        <v>195.6826054543102</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.28221481722579</v>
+        <v>-85.15575294454679</v>
       </c>
       <c r="D8" t="n">
-        <v>-428427.4325237171</v>
+        <v>-1712803.679326313</v>
       </c>
       <c r="E8" t="n">
-        <v>-178.4231667256218</v>
+        <v>-1433.151327472623</v>
       </c>
       <c r="F8" t="n">
-        <v>-120.9353754678882</v>
+        <v>-271.8285416494426</v>
       </c>
       <c r="G8" t="n">
-        <v>451878.784502393</v>
+        <v>1911617.498128736</v>
       </c>
       <c r="H8" t="n">
-        <v>-13217.76200185783</v>
+        <v>-113165.8413860607</v>
       </c>
       <c r="I8" t="n">
-        <v>3161.066394920799</v>
+        <v>28540.77234634302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45.93624169647614</v>
+        <v>195.6826054543102</v>
       </c>
       <c r="B9" t="n">
-        <v>-166.4950672523441</v>
+        <v>-571.8358827451613</v>
       </c>
       <c r="C9" t="n">
-        <v>104.5421915816071</v>
+        <v>359.7398083116524</v>
       </c>
       <c r="D9" t="n">
-        <v>-178.6299070155313</v>
+        <v>-1433.724007917278</v>
       </c>
       <c r="E9" t="n">
-        <v>-427650.5041654182</v>
+        <v>-1707997.495462815</v>
       </c>
       <c r="F9" t="n">
-        <v>-775.0726275043272</v>
+        <v>-4799.224590676182</v>
       </c>
       <c r="G9" t="n">
-        <v>-13217.76200185783</v>
+        <v>-113165.8413860607</v>
       </c>
       <c r="H9" t="n">
-        <v>444862.7407782736</v>
+        <v>1839496.243988941</v>
       </c>
       <c r="I9" t="n">
-        <v>-6947.009955543546</v>
+        <v>-50624.62287636046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-13.28221481722581</v>
+        <v>-85.15575294454679</v>
       </c>
       <c r="B10" t="n">
-        <v>104.5421915816071</v>
+        <v>359.7398083116524</v>
       </c>
       <c r="C10" t="n">
-        <v>-85.44098632215122</v>
+        <v>-271.6923346484936</v>
       </c>
       <c r="D10" t="n">
-        <v>-120.6943682934979</v>
+        <v>-271.1554950424131</v>
       </c>
       <c r="E10" t="n">
-        <v>-775.3221087522596</v>
+        <v>-4799.885482785598</v>
       </c>
       <c r="F10" t="n">
-        <v>-428062.696561586</v>
+        <v>-1710803.024177828</v>
       </c>
       <c r="G10" t="n">
-        <v>3161.066394920799</v>
+        <v>28540.77234634303</v>
       </c>
       <c r="H10" t="n">
-        <v>-6947.009955543547</v>
+        <v>-50624.62287636047</v>
       </c>
       <c r="I10" t="n">
-        <v>433326.714882632</v>
+        <v>1744136.540207704</v>
       </c>
     </row>
   </sheetData>
